--- a/forecast_summary_data.xlsx
+++ b/forecast_summary_data.xlsx
@@ -64704,13 +64704,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF66783-B3A3-4857-9948-702C06D97279}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F3692-A296-49A0-A9FC-3FF7FFA9523D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{775033B7-274F-4143-9BB5-5A120868C5A4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A8C6AAF-6DF4-409A-AE24-D7305989376C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D54BCA-8A89-4899-9E13-EC0CF81C2DB1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE39BFD4-BFE0-4FE0-BDF4-9D7E08D29899}"/>
 </file>
--- a/forecast_summary_data.xlsx
+++ b/forecast_summary_data.xlsx
@@ -64704,13 +64704,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D4F3692-A296-49A0-A9FC-3FF7FFA9523D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB25C201-C190-40C8-A2F9-3F1D31E7A94A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A8C6AAF-6DF4-409A-AE24-D7305989376C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EAA56BA-09E2-4379-8E67-A8611DDC526B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE39BFD4-BFE0-4FE0-BDF4-9D7E08D29899}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64562D27-3B4C-47CF-A475-970F7A606BDD}"/>
 </file>
--- a/forecast_summary_data.xlsx
+++ b/forecast_summary_data.xlsx
@@ -64704,13 +64704,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB25C201-C190-40C8-A2F9-3F1D31E7A94A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D81FBF8-4587-4829-BF35-ED8E1C240B81}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EAA56BA-09E2-4379-8E67-A8611DDC526B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA8AD2C-474C-4FCE-95C4-9FD7983ECF84}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64562D27-3B4C-47CF-A475-970F7A606BDD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E93001-E954-4DC0-AEE8-8F0FD45421BB}"/>
 </file>
--- a/forecast_summary_data.xlsx
+++ b/forecast_summary_data.xlsx
@@ -64704,13 +64704,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D81FBF8-4587-4829-BF35-ED8E1C240B81}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3688CD68-3F9A-4698-94B4-5CA2BC827EE6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DA8AD2C-474C-4FCE-95C4-9FD7983ECF84}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA9275D2-8912-4D97-AAAF-14F030DF9279}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E93001-E954-4DC0-AEE8-8F0FD45421BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E08F2B2-2AE3-4B76-97EE-33FF8DF7B2C2}"/>
 </file>
--- a/forecast_summary_data.xlsx
+++ b/forecast_summary_data.xlsx
@@ -64704,13 +64704,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3688CD68-3F9A-4698-94B4-5CA2BC827EE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53C18F9D-2832-45C7-A81F-1745350B3CC8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA9275D2-8912-4D97-AAAF-14F030DF9279}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FC9979F-9966-4767-9812-784FF7500A12}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E08F2B2-2AE3-4B76-97EE-33FF8DF7B2C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B074478-B154-48E6-B378-F1CA3CCD0670}"/>
 </file>